--- a/main menu.xlsx
+++ b/main menu.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\Migrate AS400\A Shared (Delete Every Monday)\Tan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\Migrate AS400\A Shared (Delete Every Monday)\P.NUM\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23088" windowHeight="7500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23085" windowHeight="7500"/>
   </bookViews>
   <sheets>
     <sheet name="Main menu" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="74">
   <si>
     <t>CallScreen</t>
   </si>
@@ -405,6 +405,18 @@
   </si>
   <si>
     <t xml:space="preserve">DESTCO02 </t>
+  </si>
+  <si>
+    <t>Estimated Manday</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Remark</t>
+  </si>
+  <si>
+    <t>File not found</t>
   </si>
 </sst>
 </file>
@@ -483,7 +495,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -520,6 +532,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -803,24 +818,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="28.2" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="28.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="15.109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="29.44140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="35.5546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="19.109375" style="3" customWidth="1"/>
-    <col min="5" max="11" width="8.88671875" style="3"/>
-    <col min="12" max="12" width="20.88671875" style="3" customWidth="1"/>
-    <col min="13" max="13" width="8.88671875" style="3"/>
-    <col min="14" max="14" width="18.21875" style="3" customWidth="1"/>
-    <col min="15" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="15.1328125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="29.46484375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="35.53125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="19.1328125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.53125" style="3" customWidth="1"/>
+    <col min="7" max="11" width="8.86328125" style="3"/>
+    <col min="12" max="12" width="20.86328125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="8.86328125" style="3"/>
+    <col min="14" max="14" width="18.19921875" style="3" customWidth="1"/>
+    <col min="15" max="16384" width="8.86328125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="28.2" customHeight="1">
+    <row r="1" spans="1:14" ht="28.25" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>68</v>
       </c>
@@ -828,7 +845,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="28.2" customHeight="1">
+    <row r="2" spans="1:14" ht="28.25" customHeight="1">
       <c r="A2" s="12" t="s">
         <v>65</v>
       </c>
@@ -841,8 +858,14 @@
       <c r="D2" s="12" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" ht="28.2" customHeight="1">
+      <c r="E2" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="28.25" customHeight="1">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
@@ -852,8 +875,13 @@
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
-    </row>
-    <row r="4" spans="1:14" ht="28.2" customHeight="1">
+      <c r="E3" s="13">
+        <f>SUM(E4:E27)</f>
+        <v>48</v>
+      </c>
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="1:14" ht="28.25" customHeight="1">
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
@@ -863,9 +891,12 @@
       <c r="D4" s="11" t="s">
         <v>64</v>
       </c>
+      <c r="E4" s="11">
+        <v>2</v>
+      </c>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:14" ht="28.2" customHeight="1">
+    <row r="5" spans="1:14" ht="28.25" customHeight="1">
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
@@ -875,8 +906,11 @@
       <c r="D5" s="11" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" ht="28.2" customHeight="1">
+      <c r="E5" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="28.25" customHeight="1">
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
@@ -885,12 +919,15 @@
       </c>
       <c r="D6" s="11" t="s">
         <v>64</v>
+      </c>
+      <c r="E6" s="11">
+        <v>2</v>
       </c>
       <c r="K6" s="4"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="1:14" ht="28.2" customHeight="1">
+    <row r="7" spans="1:14" ht="28.25" customHeight="1">
       <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
@@ -899,13 +936,16 @@
       </c>
       <c r="D7" s="11" t="s">
         <v>64</v>
+      </c>
+      <c r="E7" s="11">
+        <v>2</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
     </row>
-    <row r="8" spans="1:14" ht="28.2" customHeight="1">
+    <row r="8" spans="1:14" ht="28.25" customHeight="1">
       <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
@@ -914,13 +954,16 @@
       </c>
       <c r="D8" s="11" t="s">
         <v>64</v>
+      </c>
+      <c r="E8" s="11">
+        <v>2</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
     </row>
-    <row r="9" spans="1:14" ht="28.2" customHeight="1">
+    <row r="9" spans="1:14" ht="28.25" customHeight="1">
       <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
@@ -929,13 +972,16 @@
       </c>
       <c r="D9" s="11" t="s">
         <v>64</v>
+      </c>
+      <c r="E9" s="11">
+        <v>2</v>
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
     </row>
-    <row r="10" spans="1:14" ht="28.2" customHeight="1">
+    <row r="10" spans="1:14" ht="28.25" customHeight="1">
       <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
@@ -944,13 +990,16 @@
       </c>
       <c r="D10" s="11" t="s">
         <v>64</v>
+      </c>
+      <c r="E10" s="11">
+        <v>2</v>
       </c>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
     </row>
-    <row r="11" spans="1:14" ht="28.2" customHeight="1">
+    <row r="11" spans="1:14" ht="28.25" customHeight="1">
       <c r="B11" s="2" t="s">
         <v>21</v>
       </c>
@@ -960,8 +1009,11 @@
       <c r="D11" s="11" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" ht="28.2" customHeight="1">
+      <c r="E11" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="28.25" customHeight="1">
       <c r="B12" s="2" t="s">
         <v>23</v>
       </c>
@@ -971,8 +1023,11 @@
       <c r="D12" s="11" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" ht="28.2" customHeight="1">
+      <c r="E12" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="28.25" customHeight="1">
       <c r="B13" s="2" t="s">
         <v>25</v>
       </c>
@@ -982,8 +1037,11 @@
       <c r="D13" s="11" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" ht="28.2" customHeight="1">
+      <c r="E13" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="28.25" customHeight="1">
       <c r="B14" s="2" t="s">
         <v>27</v>
       </c>
@@ -993,8 +1051,11 @@
       <c r="D14" s="11" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" ht="28.2" customHeight="1">
+      <c r="E14" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="28.25" customHeight="1">
       <c r="B15" s="2" t="s">
         <v>29</v>
       </c>
@@ -1004,8 +1065,11 @@
       <c r="D15" s="11" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" ht="28.2" customHeight="1">
+      <c r="E15" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="28.25" customHeight="1">
       <c r="B16" s="2" t="s">
         <v>31</v>
       </c>
@@ -1015,8 +1079,11 @@
       <c r="D16" s="11" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="28.2" customHeight="1">
+      <c r="E16" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="28.25" customHeight="1">
       <c r="B17" s="2" t="s">
         <v>33</v>
       </c>
@@ -1026,8 +1093,11 @@
       <c r="D17" s="11" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="28.2" customHeight="1">
+      <c r="E17" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="28.25" customHeight="1">
       <c r="B18" s="2" t="s">
         <v>35</v>
       </c>
@@ -1037,8 +1107,11 @@
       <c r="D18" s="11" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="28.2" customHeight="1">
+      <c r="E18" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="28.25" customHeight="1">
       <c r="B19" s="2" t="s">
         <v>37</v>
       </c>
@@ -1048,8 +1121,11 @@
       <c r="D19" s="11" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="28.2" customHeight="1">
+      <c r="E19" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="28.25" customHeight="1">
       <c r="B20" s="2" t="s">
         <v>39</v>
       </c>
@@ -1059,8 +1135,11 @@
       <c r="D20" s="11" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="28.2" customHeight="1">
+      <c r="E20" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="28.25" customHeight="1">
       <c r="B21" s="2" t="s">
         <v>41</v>
       </c>
@@ -1070,8 +1149,11 @@
       <c r="D21" s="11" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="28.2" customHeight="1">
+      <c r="E21" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="28.25" customHeight="1">
       <c r="B22" s="2" t="s">
         <v>43</v>
       </c>
@@ -1081,8 +1163,11 @@
       <c r="D22" s="11" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="28.2" customHeight="1">
+      <c r="E22" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="28.25" customHeight="1">
       <c r="B23" s="2" t="s">
         <v>45</v>
       </c>
@@ -1092,8 +1177,11 @@
       <c r="D23" s="11" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="28.2" customHeight="1">
+      <c r="E23" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="28.25" customHeight="1">
       <c r="B24" s="2" t="s">
         <v>47</v>
       </c>
@@ -1103,8 +1191,11 @@
       <c r="D24" s="11" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="28.2" customHeight="1">
+      <c r="E24" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="28.25" customHeight="1">
       <c r="B25" s="2" t="s">
         <v>49</v>
       </c>
@@ -1114,8 +1205,11 @@
       <c r="D25" s="11" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="28.2" customHeight="1">
+      <c r="E25" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="28.25" customHeight="1">
       <c r="B26" s="2" t="s">
         <v>51</v>
       </c>
@@ -1125,8 +1219,11 @@
       <c r="D26" s="11" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="28.2" customHeight="1">
+      <c r="E26" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="28.25" customHeight="1">
       <c r="B27" s="2" t="s">
         <v>53</v>
       </c>
@@ -1136,8 +1233,11 @@
       <c r="D27" s="11" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" ht="28.2" customHeight="1">
+      <c r="E27" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="28.25" customHeight="1">
       <c r="A28" s="6" t="s">
         <v>2</v>
       </c>
@@ -1147,8 +1247,13 @@
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
-    </row>
-    <row r="29" spans="1:4" ht="28.2" customHeight="1">
+      <c r="E28" s="13">
+        <f>SUM(E29:E30)</f>
+        <v>4</v>
+      </c>
+      <c r="F28" s="7"/>
+    </row>
+    <row r="29" spans="1:6" ht="28.25" customHeight="1">
       <c r="B29" s="2" t="s">
         <v>55</v>
       </c>
@@ -1158,8 +1263,11 @@
       <c r="D29" s="11" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="28.2" customHeight="1">
+      <c r="E29" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="28.25" customHeight="1">
       <c r="B30" s="2" t="s">
         <v>57</v>
       </c>
@@ -1169,24 +1277,29 @@
       <c r="D30" s="11" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" ht="28.2" customHeight="1">
+      <c r="E30" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="28.25" customHeight="1">
       <c r="A31" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
-    </row>
-    <row r="32" spans="1:4" ht="28.2" customHeight="1">
+      <c r="E31" s="11"/>
+    </row>
+    <row r="32" spans="1:6" ht="28.25" customHeight="1">
       <c r="A32" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
-    </row>
-    <row r="33" spans="1:4" ht="28.2" customHeight="1">
+      <c r="E32" s="11"/>
+    </row>
+    <row r="33" spans="1:6" ht="28.25" customHeight="1">
       <c r="A33" s="6" t="s">
         <v>5</v>
       </c>
@@ -1196,8 +1309,12 @@
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
-    </row>
-    <row r="34" spans="1:4" ht="28.2" customHeight="1">
+      <c r="E33" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="F33" s="7"/>
+    </row>
+    <row r="34" spans="1:6" ht="28.25" customHeight="1">
       <c r="B34" s="2" t="s">
         <v>59</v>
       </c>
@@ -1206,6 +1323,12 @@
       </c>
       <c r="D34" s="11" t="s">
         <v>64</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1222,13 +1345,13 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="16.21875" customWidth="1"/>
-    <col min="2" max="2" width="115.44140625" customWidth="1"/>
+    <col min="1" max="1" width="16.19921875" customWidth="1"/>
+    <col min="2" max="2" width="115.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="86.4">
+    <row r="1" spans="1:16" ht="85.5">
       <c r="A1" s="9" t="s">
         <v>60</v>
       </c>
@@ -1239,7 +1362,7 @@
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
     </row>
-    <row r="2" spans="1:16" ht="139.19999999999999" customHeight="1">
+    <row r="2" spans="1:16" ht="139.25" customHeight="1">
       <c r="A2" s="10" t="s">
         <v>61</v>
       </c>
